--- a/Question_Sets/Role-specific skills/Computer Literacy (Mac).xlsx
+++ b/Question_Sets/Role-specific skills/Computer Literacy (Mac).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which of the following is not considered to be a pointing device ?', 'ques_type': 2, 'options': ['Keyboard', 'Touchpad', 'Stylus', 'Mouse'], 'score': 'Keyboard'}, {'title': 'Which of the following is a browser used to access the internet?', 'ques_type': 2, 'options': ['Google Hangouts', 'Google Chrome', 'Google Search', 'Google Plus'], 'score': 'Google Chrome'}, {'title': 'Which of the following is recommended to ensure email safety?', 'ques_type': 2, 'options': ['Clicking on attachments from unknown senders.', 'Never logging out of your account.', 'Uninstalling spam filters.', 'Avoiding public Wi-Fi.'], 'score': 'Avoiding public Wi-Fi.'}, {'title': 'You aim to organize some files that are related to each other by locating them in the same “place” on your computer. What is the best action to take?', 'ques_type': 2, 'options': ['Place them all in the same folder.', 'Place them all in the same file.', 'Assign the same permissions to all of the files.', 'Mark all of the files as “shared.” '], 'score': 'Place them all in the same folder.'}]</t>
+    <t>questions = [
+    {
+        "title": "Which of the following is not considered to be a pointing device ?",
+        "ques_type": 2,
+        "options": [
+            "Keyboard",
+            "Touchpad",
+            "Stylus",
+            "Mouse"
+        ],
+        "score": "Keyboard"
+    },
+    {
+        "title": "Which of the following is a browser used to access the internet?",
+        "ques_type": 2,
+        "options": [
+            "Google Hangouts",
+            "Google Chrome",
+            "Google Search",
+            "Google Plus"
+        ],
+        "score": "Google Chrome"
+    },
+    {
+        "title": "Which of the following is recommended to ensure email safety?",
+        "ques_type": 2,
+        "options": [
+            "Clicking on attachments from unknown senders.",
+            "Never logging out of your account.",
+            "Uninstalling spam filters.",
+            "Avoiding public Wi-Fi."
+        ],
+        "score": "Avoiding public Wi-Fi."
+    },
+    {
+        "title": "You aim to organize some files that are related to each other by locating them in the same \u201cplace\u201d on your computer. What is the best action to take?",
+        "ques_type": 2,
+        "options": [
+            "Place them all in the same folder.",
+            "Place them all in the same file.",
+            "Assign the same permissions to all of the files.",
+            "Mark all of the files as \u201cshared.\u201d "
+        ],
+        "score": "Place them all in the same folder."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
